--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/783037e7e17d67e5/NTNU/3. år/ai/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="132" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01864E8D-55A1-4571-A09C-A46F25C741FA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F623F955-2D65-4B19-8F97-472A9E9C9497}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>Method</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>X4</t>
+  </si>
+  <si>
+    <t>SVR, maxiter=1000, tol=1e-3</t>
+  </si>
+  <si>
+    <t>Decision Tree Max_depth = 7</t>
+  </si>
+  <si>
+    <t>MDepth=20</t>
+  </si>
+  <si>
+    <t>Mdepth=30</t>
+  </si>
+  <si>
+    <t>Mdepth=25</t>
+  </si>
+  <si>
+    <t>Mdepth=20</t>
+  </si>
+  <si>
+    <t>Mdepth=10</t>
+  </si>
+  <si>
+    <t>Mdepth=5</t>
+  </si>
+  <si>
+    <t>Mdepth=7</t>
   </si>
 </sst>
 </file>
@@ -98,7 +125,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -147,7 +174,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -465,24 +492,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C49CEF-204F-41F1-B9F7-9D7BA8FDB162}">
-  <dimension ref="B2:L8"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" customWidth="1"/>
     <col min="6" max="6" width="14.90625" customWidth="1"/>
     <col min="7" max="7" width="17.26953125" customWidth="1"/>
     <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" customWidth="1"/>
+    <col min="10" max="10" width="48.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="1:12">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
         <v>12</v>
       </c>
@@ -495,7 +525,7 @@
         <v>0.54699999999999993</v>
       </c>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="1:12">
       <c r="C3" t="s">
         <v>13</v>
       </c>
@@ -514,8 +544,11 @@
       <c r="I3">
         <v>1.4E-2</v>
       </c>
-    </row>
-    <row r="4" spans="2:12">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="D4" t="s">
         <v>14</v>
       </c>
@@ -544,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="1:12">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -576,7 +609,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="1:12">
       <c r="D6" t="s">
         <v>16</v>
       </c>
@@ -602,7 +635,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="1:12">
       <c r="D7" t="s">
         <v>17</v>
       </c>
@@ -628,7 +661,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="1:12">
       <c r="D8" t="s">
         <v>18</v>
       </c>
@@ -654,29 +687,637 @@
         <v>0.3</v>
       </c>
     </row>
+    <row r="9" spans="1:12">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9">
+        <f>0.676626918941091</f>
+        <v>0.67662691894109095</v>
+      </c>
+      <c r="K9">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <f>0.676626918941091</f>
+        <v>0.67662691894109095</v>
+      </c>
+      <c r="K10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11">
+        <f>0.676626918941091</f>
+        <v>0.67662691894109095</v>
+      </c>
+      <c r="K11">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <f>0.676626918941091</f>
+        <v>0.67662691894109095</v>
+      </c>
+      <c r="K12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13">
+        <f>0.406441703591617</f>
+        <v>0.40644170359161702</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
+        <f>0.422199508190172</f>
+        <v>0.42219950819017199</v>
+      </c>
+      <c r="K14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <f>0.388625864628842</f>
+        <v>0.38862586462884202</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <f>0.400039768121613</f>
+        <v>0.40003976812161302</v>
+      </c>
+      <c r="K16">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17">
+        <v>0.39718320322537898</v>
+      </c>
+      <c r="K17">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11">
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>9</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I18" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18">
+        <v>0.38348721084245402</v>
+      </c>
+      <c r="K18">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11">
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19">
+        <v>0.43743717215087902</v>
+      </c>
+      <c r="K19">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20">
+        <v>0.354380234848721</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11">
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>10</v>
+      </c>
+      <c r="I21" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21">
+        <v>0.420572942180021</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11">
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>10</v>
+      </c>
+      <c r="I22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22">
+        <v>0.41436501709246798</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11">
+      <c r="C23">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>0.41528236247480099</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11">
+      <c r="C24">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24">
+        <v>0.44055155937521501</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="J1:J2 J19:J22 J24:J1048576 J4:J17">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2E3248A5-9126-4858-B80E-B21E96B323BD}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E59F1605-3AD5-488A-8367-B59A063D6B33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J24:J1048576 J4:J22">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2EDC6491-F5B0-4DBA-8151-D4217EBFBBC4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DEA47C6-B8FD-4134-BF77-16E535886DA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J2 J4:J1048576">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0E31D80-0377-4BB8-B7EC-18C020757932}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="J1:J1048576">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
         <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-    <cfRule type="iconSet" priority="1">
-      <iconSet iconSet="5Arrows">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="20"/>
-        <cfvo type="percent" val="40"/>
-        <cfvo type="percent" val="60"/>
-        <cfvo type="percent" val="80"/>
-      </iconSet>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{126E423A-FEDB-473C-AA94-A74501802407}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2E3248A5-9126-4858-B80E-B21E96B323BD}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J2 J19:J22 J24:J1048576 J4:J17</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E59F1605-3AD5-488A-8367-B59A063D6B33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2EDC6491-F5B0-4DBA-8151-D4217EBFBBC4}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J2 J24:J1048576 J4:J22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DEA47C6-B8FD-4134-BF77-16E535886DA5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0E31D80-0377-4BB8-B7EC-18C020757932}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J2 J4:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{126E423A-FEDB-473C-AA94-A74501802407}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/783037e7e17d67e5/NTNU/3. år/ai/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="132" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01864E8D-55A1-4571-A09C-A46F25C741FA}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5858234-C0E2-4AF2-8778-711AA6F4F341}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F623F955-2D65-4B19-8F97-472A9E9C9497}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="30">
   <si>
     <t>Method</t>
   </si>
@@ -118,6 +118,12 @@
   </si>
   <si>
     <t>Mdepth=7</t>
+  </si>
+  <si>
+    <t>maxiter=2000</t>
+  </si>
+  <si>
+    <t>Random Forrest Regressor MaxDepth=4</t>
   </si>
 </sst>
 </file>
@@ -149,12 +155,18 @@
       <name val="Var(--vscode-editor-font-family"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -169,7 +181,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -178,6 +190,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,15 +509,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C49CEF-204F-41F1-B9F7-9D7BA8FDB162}">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="3" max="3" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="33.08984375" customWidth="1"/>
     <col min="4" max="4" width="9.1796875" customWidth="1"/>
     <col min="5" max="5" width="9.54296875" customWidth="1"/>
     <col min="6" max="6" width="14.90625" customWidth="1"/>
@@ -581,7 +598,7 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" t="s">
@@ -662,25 +679,25 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8">
+      <c r="E8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
         <v>2.06591831096614E-4</v>
       </c>
       <c r="K8">
@@ -800,156 +817,156 @@
     </row>
     <row r="13" spans="1:12">
       <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13">
+        <v>0.67662691894109095</v>
+      </c>
+      <c r="K13">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="C14" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>16</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14">
         <f>0.406441703591617</f>
         <v>0.40644170359161702</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
-      <c r="C14" t="s">
+    <row r="15" spans="1:12">
+      <c r="C15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" t="s">
-        <v>9</v>
-      </c>
-      <c r="H14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J14">
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15">
         <f>0.422199508190172</f>
         <v>0.42219950819017199</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
-      <c r="C15" t="s">
+    <row r="16" spans="1:12">
+      <c r="C16" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15">
+      <c r="E16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
         <f>0.388625864628842</f>
         <v>0.38862586462884202</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
-      <c r="C16" t="s">
+    <row r="17" spans="3:11">
+      <c r="C17" t="s">
         <v>23</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16">
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17">
         <f>0.400039768121613</f>
         <v>0.40003976812161302</v>
       </c>
-      <c r="K16">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11">
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" t="s">
-        <v>10</v>
-      </c>
-      <c r="I17" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17">
-        <v>0.39718320322537898</v>
-      </c>
       <c r="K17">
         <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="3:11">
       <c r="C18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -970,7 +987,7 @@
         <v>9</v>
       </c>
       <c r="J18">
-        <v>0.38348721084245402</v>
+        <v>0.39718320322537898</v>
       </c>
       <c r="K18">
         <v>0.3</v>
@@ -978,7 +995,7 @@
     </row>
     <row r="19" spans="3:11">
       <c r="C19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -999,7 +1016,7 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>0.43743717215087902</v>
+        <v>0.38348721084245402</v>
       </c>
       <c r="K19">
         <v>0.3</v>
@@ -1007,7 +1024,7 @@
     </row>
     <row r="20" spans="3:11">
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1028,12 +1045,12 @@
         <v>9</v>
       </c>
       <c r="J20">
-        <v>0.354380234848721</v>
+        <v>0.43743717215087902</v>
       </c>
     </row>
     <row r="21" spans="3:11">
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1054,12 +1071,12 @@
         <v>9</v>
       </c>
       <c r="J21">
-        <v>0.420572942180021</v>
+        <v>0.354380234848721</v>
       </c>
     </row>
     <row r="22" spans="3:11">
-      <c r="C22">
-        <v>15</v>
+      <c r="C22" t="s">
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1080,12 +1097,12 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>0.41436501709246798</v>
+        <v>0.420572942180021</v>
       </c>
     </row>
     <row r="23" spans="3:11">
       <c r="C23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1106,12 +1123,12 @@
         <v>9</v>
       </c>
       <c r="J23">
-        <v>0.41528236247480099</v>
+        <v>0.41436501709246798</v>
       </c>
     </row>
     <row r="24" spans="3:11">
       <c r="C24">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>18</v>
@@ -1132,12 +1149,350 @@
         <v>9</v>
       </c>
       <c r="J24">
+        <v>0.41528236247480099</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11">
+      <c r="C25" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4">
         <v>0.44055155937521501</v>
       </c>
     </row>
+    <row r="26" spans="3:11">
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26">
+        <v>0.32370641591944499</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11">
+      <c r="C27">
+        <v>50</v>
+      </c>
+      <c r="D27" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27">
+        <v>0.31814311069816098</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11">
+      <c r="C28">
+        <v>20</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28">
+        <v>0.39457753405561502</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11">
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29">
+        <v>0.41485808627703602</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11">
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30">
+        <v>0.41767461080028701</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11">
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+      <c r="H31" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31">
+        <v>0.41047018120705597</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11">
+      <c r="C32">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32">
+        <v>0.39852546004075001</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10">
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>0.34921241512333101</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10">
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34">
+        <v>0.34398083643025201</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10">
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.482450638607479</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10">
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36">
+        <v>0.57169230588248598</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10">
+      <c r="C37">
+        <v>32</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37">
+        <v>0.59234710820256997</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J1:J2 J19:J22 J24:J1048576 J4:J17">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J1048576">
+    <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1150,8 +1505,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="dataBar" priority="6">
+  <conditionalFormatting sqref="J19">
+    <cfRule type="dataBar" priority="9">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1164,8 +1519,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J24:J1048576 J4:J22">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J23 J25:J34 J36:J1048576">
+    <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1178,8 +1533,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1192,8 +1547,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J24">
+    <cfRule type="dataBar" priority="6">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1206,7 +1561,49 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J4:J1048576">
+  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J34 J36:J1048576">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0E31D80-0377-4BB8-B7EC-18C020757932}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J12 J14:J34 J36:J1048576">
+    <cfRule type="dataBar" priority="27">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{126E423A-FEDB-473C-AA94-A74501802407}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:J34 J36:J1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{4F7E9FCA-15D9-4393-A707-31E7C08EBDB2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J35">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -1215,7 +1612,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B0E31D80-0377-4BB8-B7EC-18C020757932}</x14:id>
+          <x14:id>{55F584A5-F8E7-4655-8845-1F7D02A919B6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1229,7 +1626,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{126E423A-FEDB-473C-AA94-A74501802407}</x14:id>
+          <x14:id>{7BA0D201-8352-42A1-AA34-10F85E617F45}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -1248,7 +1645,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J19:J22 J24:J1048576 J4:J17</xm:sqref>
+          <xm:sqref>J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E59F1605-3AD5-488A-8367-B59A063D6B33}">
@@ -1259,7 +1656,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J18</xm:sqref>
+          <xm:sqref>J19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EDC6491-F5B0-4DBA-8151-D4217EBFBBC4}">
@@ -1270,7 +1667,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J24:J1048576 J4:J22</xm:sqref>
+          <xm:sqref>J1:J2 J4:J12 J14:J23 J25:J34 J36:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DEA47C6-B8FD-4134-BF77-16E535886DA5}">
@@ -1281,7 +1678,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J23</xm:sqref>
+          <xm:sqref>J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}">
@@ -1292,7 +1689,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J23</xm:sqref>
+          <xm:sqref>J24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0E31D80-0377-4BB8-B7EC-18C020757932}">
@@ -1303,10 +1700,43 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J4:J1048576</xm:sqref>
+          <xm:sqref>J1:J2 J4:J12 J14:J34 J36:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{126E423A-FEDB-473C-AA94-A74501802407}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J12 J14:J34 J36:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{4F7E9FCA-15D9-4393-A707-31E7C08EBDB2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J1:J34 J36:J1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55F584A5-F8E7-4655-8845-1F7D02A919B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J35</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7BA0D201-8352-42A1-AA34-10F85E617F45}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/783037e7e17d67e5/NTNU/3. år/ai/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="223" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5858234-C0E2-4AF2-8778-711AA6F4F341}"/>
+  <xr:revisionPtr revIDLastSave="337" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{301578F3-1590-4B39-8AB5-7063C46CB985}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F623F955-2D65-4B19-8F97-472A9E9C9497}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="39">
   <si>
     <t>Method</t>
   </si>
@@ -124,6 +124,33 @@
   </si>
   <si>
     <t>Random Forrest Regressor MaxDepth=4</t>
+  </si>
+  <si>
+    <t>KNN regressor n=1.</t>
+  </si>
+  <si>
+    <t>r^2 total: 0.4258551814249235</t>
+  </si>
+  <si>
+    <t>Polynomial regression, deg 2</t>
+  </si>
+  <si>
+    <t>ensemble. Randforr (32) SVR 1000 1e-3</t>
+  </si>
+  <si>
+    <t>AI, dense 512, dense 1, 4 epochs</t>
+  </si>
+  <si>
+    <t>dense 512, dense 512, dense 1, 5 epochs</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>Return the mean accuracy on the given test data and labels.</t>
+  </si>
+  <si>
+    <t>ExtratreeRegressor maxdepth=20, est=40</t>
   </si>
 </sst>
 </file>
@@ -155,7 +182,7 @@
       <name val="Var(--vscode-editor-font-family"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,6 +192,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -181,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -195,6 +228,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C49CEF-204F-41F1-B9F7-9D7BA8FDB162}">
-  <dimension ref="A2:L37"/>
+  <dimension ref="A2:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="88" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
@@ -733,6 +768,9 @@
       <c r="K9">
         <v>0.3</v>
       </c>
+      <c r="L9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="D10" t="s">
@@ -1360,7 +1398,7 @@
         <v>0.39852546004075001</v>
       </c>
     </row>
-    <row r="33" spans="3:10">
+    <row r="33" spans="2:10">
       <c r="C33" t="s">
         <v>29</v>
       </c>
@@ -1386,7 +1424,7 @@
         <v>0.34921241512333101</v>
       </c>
     </row>
-    <row r="34" spans="3:10">
+    <row r="34" spans="2:10">
       <c r="C34">
         <v>4</v>
       </c>
@@ -1412,7 +1450,7 @@
         <v>0.34398083643025201</v>
       </c>
     </row>
-    <row r="35" spans="3:10">
+    <row r="35" spans="2:10">
       <c r="C35">
         <v>8</v>
       </c>
@@ -1438,7 +1476,7 @@
         <v>0.482450638607479</v>
       </c>
     </row>
-    <row r="36" spans="3:10">
+    <row r="36" spans="2:10">
       <c r="C36">
         <v>16</v>
       </c>
@@ -1464,34 +1502,392 @@
         <v>0.57169230588248598</v>
       </c>
     </row>
-    <row r="37" spans="3:10">
-      <c r="C37">
+    <row r="37" spans="2:10">
+      <c r="C37" s="5">
         <v>32</v>
       </c>
-      <c r="D37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37">
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="5">
         <v>0.59234710820256997</v>
       </c>
     </row>
+    <row r="38" spans="2:10">
+      <c r="C38" s="7">
+        <v>40</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="7">
+        <v>0.59190903677141304</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>3.4174000000000003E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>0.27392100000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>0.30882599999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>0.32458799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="C43">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>0.33065099999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="C44">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>0.334287</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="C45">
+        <v>7</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45">
+        <v>0.331563</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10">
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>0.34065499999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10">
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>10</v>
+      </c>
+      <c r="I47" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47">
+        <v>0.34012300000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="C48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="J48">
+        <v>2.5887267610162899E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>4.0281531366176404E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10">
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="J50">
+        <v>4.6624639791321698E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10">
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="J51">
+        <v>5.59945467413003E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10">
+      <c r="C52">
+        <v>6</v>
+      </c>
+      <c r="J52">
+        <v>-5.4905274435128798E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:10">
+      <c r="C53" s="1">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <v>-0.84922301876179696</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10">
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="8">
+        <v>-6.0915468092361104E+28</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10">
+      <c r="B55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="J55">
+        <v>-2.1816499340586701E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10">
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56">
+        <v>-2.1816499340586701E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="J57">
+        <v>0.57984439099906904</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J1048576">
+  <conditionalFormatting sqref="J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="min"/>
@@ -1519,7 +1915,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J23 J25:J34 J36:J1048576">
+  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J23 J25:J34 J36:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="8">
       <dataBar>
         <cfvo type="min"/>
@@ -1561,7 +1957,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J34 J36:J1048576">
+  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J34 J36:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="min"/>
@@ -1575,7 +1971,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J12 J14:J34 J36:J1048576">
+  <conditionalFormatting sqref="J1:J12 J14:J34 J36:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="27">
       <dataBar>
         <cfvo type="min"/>
@@ -1589,7 +1985,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J34 J36:J1048576">
+  <conditionalFormatting sqref="J1:J34 J36:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
@@ -1617,7 +2013,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J1048576">
+  <conditionalFormatting sqref="J1:J51 J53 J55:J1048576">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -1645,7 +2041,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J1048576</xm:sqref>
+          <xm:sqref>J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{E59F1605-3AD5-488A-8367-B59A063D6B33}">
@@ -1667,7 +2063,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J4:J12 J14:J23 J25:J34 J36:J1048576</xm:sqref>
+          <xm:sqref>J1:J2 J4:J12 J14:J23 J25:J34 J36:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{5DEA47C6-B8FD-4134-BF77-16E535886DA5}">
@@ -1700,7 +2096,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J4:J12 J14:J34 J36:J1048576</xm:sqref>
+          <xm:sqref>J1:J2 J4:J12 J14:J34 J36:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{126E423A-FEDB-473C-AA94-A74501802407}">
@@ -1711,7 +2107,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J12 J14:J34 J36:J1048576</xm:sqref>
+          <xm:sqref>J1:J12 J14:J34 J36:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F7E9FCA-15D9-4393-A707-31E7C08EBDB2}">
@@ -1722,7 +2118,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J34 J36:J1048576</xm:sqref>
+          <xm:sqref>J1:J34 J36:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{55F584A5-F8E7-4655-8845-1F7D02A919B6}">
@@ -1744,7 +2140,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J1048576</xm:sqref>
+          <xm:sqref>J1:J51 J53 J55:J1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/783037e7e17d67e5/NTNU/3. år/ai/project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="337" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{301578F3-1590-4B39-8AB5-7063C46CB985}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="8_{D74C9236-CE3D-4988-9975-6CA48F3E9495}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51425548-9145-4B5B-A1C4-010EB8BFFBDB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F623F955-2D65-4B19-8F97-472A9E9C9497}"/>
+    <workbookView xWindow="-24120" yWindow="1185" windowWidth="24240" windowHeight="13140" xr2:uid="{F623F955-2D65-4B19-8F97-472A9E9C9497}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="62">
   <si>
     <t>Method</t>
   </si>
@@ -120,9 +119,6 @@
     <t>Mdepth=7</t>
   </si>
   <si>
-    <t>maxiter=2000</t>
-  </si>
-  <si>
     <t>Random Forrest Regressor MaxDepth=4</t>
   </si>
   <si>
@@ -150,15 +146,88 @@
     <t>Return the mean accuracy on the given test data and labels.</t>
   </si>
   <si>
-    <t>ExtratreeRegressor maxdepth=20, est=40</t>
+    <t>SGD regressor</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>Best R-squared</t>
+  </si>
+  <si>
+    <t>SVR</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>Max Depth = 11</t>
+  </si>
+  <si>
+    <t>MaxIter=1000 tol=E-3</t>
+  </si>
+  <si>
+    <t>Random Forrest Regressor</t>
+  </si>
+  <si>
+    <t>Max Depth = 32</t>
+  </si>
+  <si>
+    <t>Knn Regressor</t>
+  </si>
+  <si>
+    <t>Polynomial Regression</t>
+  </si>
+  <si>
+    <t>Degree = 4</t>
+  </si>
+  <si>
+    <t>Random Forrest &amp; SVR</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Extra trees regressor</t>
+  </si>
+  <si>
+    <t>Neural net</t>
+  </si>
+  <si>
+    <t>sigmoid, 512 nodes, 4 epochs</t>
+  </si>
+  <si>
+    <t>Neighbors = 14</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Random Forrest &amp; Extra Trees</t>
+  </si>
+  <si>
+    <t>ExtratreeRegressor est=40 depth =5</t>
+  </si>
+  <si>
+    <t>Max Depth = 27, Estimators = 40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -214,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,11 +299,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -245,6 +329,21 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C9D228A6-9D83-4298-BF91-2A7A3F12E5BD}" name="Tabell2" displayName="Tabell2" ref="Q25:S35" totalsRowShown="0">
+  <autoFilter ref="Q25:S35" xr:uid="{C7CB40CF-6395-4FE5-A4ED-7EC7297878CC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="Q26:S35">
+    <sortCondition descending="1" ref="S26:S35"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{255C3E0A-9948-4072-9D45-1454C50C1E0E}" name="Method"/>
+    <tableColumn id="2" xr3:uid="{4A4A8C82-E9B6-462F-95B3-07E764C7513B}" name="Parameters"/>
+    <tableColumn id="3" xr3:uid="{9103D715-B9F5-4CF9-9C25-FC09CAD77C95}" name="Best R-squared" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -544,21 +643,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14C49CEF-204F-41F1-B9F7-9D7BA8FDB162}">
-  <dimension ref="A2:L57"/>
+  <dimension ref="A2:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="88" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="33.08984375" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" customWidth="1"/>
-    <col min="6" max="6" width="14.90625" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" customWidth="1"/>
-    <col min="9" max="9" width="11.54296875" customWidth="1"/>
-    <col min="10" max="10" width="48.26953125" customWidth="1"/>
+    <col min="3" max="3" width="33.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="48.28515625" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" customWidth="1"/>
+    <col min="17" max="17" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
@@ -762,17 +866,19 @@
         <v>9</v>
       </c>
       <c r="J9">
-        <f>0.676626918941091</f>
-        <v>0.67662691894109095</v>
+        <v>-1.00251538560636E-4</v>
       </c>
       <c r="K9">
         <v>0.3</v>
       </c>
       <c r="L9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
       <c r="D10" t="s">
         <v>17</v>
       </c>
@@ -791,9 +897,8 @@
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10">
-        <f>0.676626918941091</f>
-        <v>0.67662691894109095</v>
+      <c r="J10" s="10">
+        <v>-5.8647019715706299E-4</v>
       </c>
       <c r="K10">
         <v>0.3</v>
@@ -819,8 +924,7 @@
         <v>10</v>
       </c>
       <c r="J11">
-        <f>0.676626918941091</f>
-        <v>0.67662691894109095</v>
+        <v>-2.92452376848095E-4</v>
       </c>
       <c r="K11">
         <v>0.3</v>
@@ -846,19 +950,18 @@
         <v>10</v>
       </c>
       <c r="J12">
-        <f>0.676626918941091</f>
-        <v>0.67662691894109095</v>
+        <v>-3.4006342231529503E-4</v>
       </c>
       <c r="K12">
         <v>0.3</v>
       </c>
     </row>
     <row r="13" spans="1:12">
-      <c r="C13" t="s">
-        <v>28</v>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>9</v>
@@ -870,21 +973,22 @@
         <v>9</v>
       </c>
       <c r="H13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J13">
-        <v>0.67662691894109095</v>
+        <f>0.406441703591617</f>
+        <v>0.40644170359161702</v>
       </c>
       <c r="K13">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="C14" s="3" t="s">
-        <v>20</v>
+      <c r="C14" t="s">
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>16</v>
@@ -905,8 +1009,8 @@
         <v>10</v>
       </c>
       <c r="J14">
-        <f>0.406441703591617</f>
-        <v>0.40644170359161702</v>
+        <f>0.422199508190172</f>
+        <v>0.42219950819017199</v>
       </c>
       <c r="K14">
         <v>0.3</v>
@@ -914,7 +1018,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="C15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>16</v>
@@ -935,8 +1039,8 @@
         <v>10</v>
       </c>
       <c r="J15">
-        <f>0.422199508190172</f>
-        <v>0.42219950819017199</v>
+        <f>0.388625864628842</f>
+        <v>0.38862586462884202</v>
       </c>
       <c r="K15">
         <v>0.3</v>
@@ -944,7 +1048,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
@@ -965,19 +1069,19 @@
         <v>10</v>
       </c>
       <c r="J16">
-        <f>0.388625864628842</f>
-        <v>0.38862586462884202</v>
+        <f>0.400039768121613</f>
+        <v>0.40003976812161302</v>
       </c>
       <c r="K16">
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="3:11">
+    <row r="17" spans="3:19">
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -989,22 +1093,33 @@
         <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J17">
-        <f>0.400039768121613</f>
-        <v>0.40003976812161302</v>
+        <v>0.39718320322537898</v>
       </c>
       <c r="K17">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11">
+      <c r="N17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O17" t="s">
+        <v>38</v>
+      </c>
+      <c r="P17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19">
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1025,15 +1140,30 @@
         <v>9</v>
       </c>
       <c r="J18">
-        <v>0.39718320322537898</v>
+        <v>0.38348721084245402</v>
       </c>
       <c r="K18">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11">
+      <c r="N18" s="9">
+        <f>AVERAGE(J5)</f>
+        <v>1.44467950245696E-4</v>
+      </c>
+      <c r="O18">
+        <f>AVERAGE(J6,J12:J16,)</f>
+        <v>0.23099900633954404</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0.18909999999999999</v>
+      </c>
+      <c r="Q18">
+        <f>AVERAGE(J8:J9,J17:J24,J33:J46)</f>
+        <v>0.35268891534902808</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19">
       <c r="C19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1054,15 +1184,13 @@
         <v>9</v>
       </c>
       <c r="J19">
-        <v>0.38348721084245402</v>
-      </c>
-      <c r="K19">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:11">
+        <v>0.43743717215087902</v>
+      </c>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="3:19">
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>18</v>
@@ -1083,12 +1211,15 @@
         <v>9</v>
       </c>
       <c r="J20">
-        <v>0.43743717215087902</v>
-      </c>
-    </row>
-    <row r="21" spans="3:11">
+        <v>0.354380234848721</v>
+      </c>
+      <c r="P20">
+        <v>0.18909999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19">
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>18</v>
@@ -1109,12 +1240,12 @@
         <v>9</v>
       </c>
       <c r="J21">
-        <v>0.354380234848721</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11">
-      <c r="C22" t="s">
-        <v>27</v>
+        <v>0.420572942180021</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19">
+      <c r="C22">
+        <v>15</v>
       </c>
       <c r="D22" t="s">
         <v>18</v>
@@ -1135,12 +1266,12 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>0.420572942180021</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11">
+        <v>0.41436501709246798</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19">
       <c r="C23">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>18</v>
@@ -1161,64 +1292,73 @@
         <v>9</v>
       </c>
       <c r="J23">
-        <v>0.41436501709246798</v>
-      </c>
-    </row>
-    <row r="24" spans="3:11">
-      <c r="C24">
-        <v>12</v>
-      </c>
-      <c r="D24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" t="s">
-        <v>10</v>
-      </c>
-      <c r="I24" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24">
         <v>0.41528236247480099</v>
       </c>
     </row>
-    <row r="25" spans="3:11">
-      <c r="C25" s="4">
+    <row r="24" spans="3:19">
+      <c r="C24" s="4">
         <v>11</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="4">
+      <c r="D24" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4">
         <v>0.44055155937521501</v>
       </c>
     </row>
-    <row r="26" spans="3:11">
+    <row r="25" spans="3:19">
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25">
+        <v>0.32370641591944499</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>0</v>
+      </c>
+      <c r="R25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19">
       <c r="C26">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
@@ -1239,12 +1379,21 @@
         <v>9</v>
       </c>
       <c r="J26">
-        <v>0.32370641591944499</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11">
+        <v>0.31814311069816098</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S26" s="11">
+        <v>0.62957148413851904</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19">
       <c r="C27">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>17</v>
@@ -1265,12 +1414,21 @@
         <v>9</v>
       </c>
       <c r="J27">
-        <v>0.31814311069816098</v>
-      </c>
-    </row>
-    <row r="28" spans="3:11">
+        <v>0.39457753405561502</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>54</v>
+      </c>
+      <c r="R27" t="s">
+        <v>61</v>
+      </c>
+      <c r="S27">
+        <v>0.61466380977407797</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19">
       <c r="C28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
@@ -1291,12 +1449,21 @@
         <v>9</v>
       </c>
       <c r="J28">
-        <v>0.39457753405561502</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11">
+        <v>0.41485808627703602</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>47</v>
+      </c>
+      <c r="R28" t="s">
+        <v>48</v>
+      </c>
+      <c r="S28" s="11">
+        <v>0.59234710820256997</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19">
       <c r="C29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -1317,12 +1484,26 @@
         <v>9</v>
       </c>
       <c r="J29">
-        <v>0.41485808627703602</v>
-      </c>
-    </row>
-    <row r="30" spans="3:11">
+        <v>0.41767461080028701</v>
+      </c>
+      <c r="L29" s="10">
+        <f>AVERAGE(J7,J10)</f>
+        <v>-1.90311560622153E-4</v>
+      </c>
+      <c r="M29" s="10"/>
+      <c r="Q29" t="s">
+        <v>44</v>
+      </c>
+      <c r="R29" t="s">
+        <v>45</v>
+      </c>
+      <c r="S29" s="12">
+        <v>0.44055155937521501</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19">
       <c r="C30">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
@@ -1343,12 +1524,25 @@
         <v>9</v>
       </c>
       <c r="J30">
-        <v>0.41767461080028701</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11">
+        <v>0.41047018120705597</v>
+      </c>
+      <c r="L30">
+        <f>AVERAGE(J25:J32)</f>
+        <v>0.37839597676521014</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>49</v>
+      </c>
+      <c r="R30" t="s">
+        <v>57</v>
+      </c>
+      <c r="S30" s="14">
+        <v>0.34334900000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19">
       <c r="C31">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D31" t="s">
         <v>17</v>
@@ -1369,12 +1563,21 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <v>0.41047018120705597</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11">
-      <c r="C32">
-        <v>17</v>
+        <v>0.39852546004075001</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R31" t="s">
+        <v>51</v>
+      </c>
+      <c r="S31" s="11">
+        <v>4.6624639791321698E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19">
+      <c r="C32" t="s">
+        <v>28</v>
       </c>
       <c r="D32" t="s">
         <v>17</v>
@@ -1395,500 +1598,625 @@
         <v>9</v>
       </c>
       <c r="J32">
-        <v>0.39852546004075001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10">
-      <c r="C33" t="s">
+        <v>0.34921241512333101</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1</v>
+      </c>
+      <c r="S32" s="11">
+        <v>2.06591831096614E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19">
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33">
+        <v>0.34398083643025201</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>43</v>
+      </c>
+      <c r="R33" t="s">
+        <v>46</v>
+      </c>
+      <c r="S33" s="11">
+        <v>-1.00251538560636E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19">
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0.482450638607479</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>55</v>
+      </c>
+      <c r="R34" t="s">
+        <v>56</v>
+      </c>
+      <c r="S34" s="11">
+        <v>-2.1816499340586701E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19">
+      <c r="C35">
+        <v>16</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35">
+        <v>0.57169230588248598</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>52</v>
+      </c>
+      <c r="R35" t="s">
+        <v>53</v>
+      </c>
+      <c r="S35" s="13">
+        <v>-6.0915468092361104E+28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:19">
+      <c r="C36" s="5">
+        <v>32</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="5">
+        <v>0.59234710820256997</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19">
+      <c r="C37" s="7">
+        <v>40</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0.59190903677141304</v>
+      </c>
+    </row>
+    <row r="38" spans="2:19">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D33" t="s">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>9</v>
-      </c>
-      <c r="G33" t="s">
-        <v>9</v>
-      </c>
-      <c r="H33" t="s">
-        <v>9</v>
-      </c>
-      <c r="I33" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33">
-        <v>0.34921241512333101</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="C34">
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" t="s">
+        <v>9</v>
+      </c>
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" t="s">
+        <v>10</v>
+      </c>
+      <c r="I38" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38">
+        <v>3.4174000000000003E-2</v>
+      </c>
+      <c r="S38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19">
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39">
+        <v>0.27392100000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19">
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>9</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="H40" t="s">
+        <v>10</v>
+      </c>
+      <c r="I40" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40">
+        <v>0.30882599999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19">
+      <c r="C41">
         <v>4</v>
       </c>
-      <c r="D34" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34" t="s">
-        <v>9</v>
-      </c>
-      <c r="G34" t="s">
-        <v>9</v>
-      </c>
-      <c r="H34" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34">
-        <v>0.34398083643025201</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="C35">
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+      <c r="H41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I41" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41">
+        <v>0.32458799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19">
+      <c r="C42">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" t="s">
+        <v>10</v>
+      </c>
+      <c r="I42" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42">
+        <v>0.33065099999999997</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19">
+      <c r="C43">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" t="s">
+        <v>10</v>
+      </c>
+      <c r="I43" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43">
+        <v>0.334287</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19">
+      <c r="C44">
+        <v>7</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" t="s">
+        <v>10</v>
+      </c>
+      <c r="I44" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44">
+        <v>0.331563</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19">
+      <c r="C45" s="5">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" t="s">
-        <v>9</v>
-      </c>
-      <c r="G35" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.482450638607479</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="C36">
-        <v>16</v>
-      </c>
-      <c r="D36" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36" t="s">
-        <v>9</v>
-      </c>
-      <c r="G36" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36">
-        <v>0.57169230588248598</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="C37" s="5">
-        <v>32</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="5">
-        <v>0.59234710820256997</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="C38" s="7">
-        <v>40</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="7">
-        <v>0.59190903677141304</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10">
-      <c r="B39" t="s">
+      <c r="D45" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="5">
+        <v>0.34065499999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19">
+      <c r="C46">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>10</v>
+      </c>
+      <c r="I46" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46">
+        <v>0.34012300000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19">
+      <c r="C47" t="s">
         <v>31</v>
       </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39" t="s">
-        <v>9</v>
-      </c>
-      <c r="G39" t="s">
-        <v>9</v>
-      </c>
-      <c r="H39" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39">
-        <v>3.4174000000000003E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
-      <c r="C40">
-        <v>2</v>
-      </c>
-      <c r="D40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>9</v>
-      </c>
-      <c r="G40" t="s">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" t="s">
-        <v>9</v>
-      </c>
-      <c r="J40">
-        <v>0.27392100000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
-      <c r="C41">
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47">
+        <v>2.5887267610162899E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19">
+      <c r="C48">
         <v>3</v>
       </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" t="s">
-        <v>9</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>9</v>
-      </c>
-      <c r="J41">
-        <v>0.30882599999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10">
-      <c r="C42">
+      <c r="J48">
+        <v>4.0281531366176404E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10">
+      <c r="C49" s="5">
         <v>4</v>
       </c>
-      <c r="D42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G42" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" t="s">
-        <v>9</v>
-      </c>
-      <c r="J42">
-        <v>0.32458799999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="C43">
-        <v>5</v>
-      </c>
-      <c r="D43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43" t="s">
-        <v>9</v>
-      </c>
-      <c r="G43" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" t="s">
-        <v>10</v>
-      </c>
-      <c r="I43" t="s">
-        <v>9</v>
-      </c>
-      <c r="J43">
-        <v>0.33065099999999997</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
-      <c r="C44">
-        <v>6</v>
-      </c>
-      <c r="D44" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" t="s">
-        <v>10</v>
-      </c>
-      <c r="I44" t="s">
-        <v>9</v>
-      </c>
-      <c r="J44">
-        <v>0.334287</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="C45">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45" t="s">
-        <v>9</v>
-      </c>
-      <c r="H45" t="s">
-        <v>10</v>
-      </c>
-      <c r="I45" t="s">
-        <v>9</v>
-      </c>
-      <c r="J45">
-        <v>0.331563</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="C46">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46" t="s">
-        <v>9</v>
-      </c>
-      <c r="H46" t="s">
-        <v>10</v>
-      </c>
-      <c r="I46" t="s">
-        <v>9</v>
-      </c>
-      <c r="J46">
-        <v>0.34065499999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="C47">
-        <v>9</v>
-      </c>
-      <c r="D47" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47" t="s">
-        <v>9</v>
-      </c>
-      <c r="H47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-      <c r="J47">
-        <v>0.34012300000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="C48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D48" t="s">
-        <v>18</v>
-      </c>
-      <c r="J48">
-        <v>2.5887267610162899E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10">
-      <c r="C49">
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <v>4.0281531366176404E-3</v>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5">
+        <v>4.6624639791321698E-3</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="C50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J50">
-        <v>4.6624639791321698E-3</v>
+        <v>5.59945467413003E-4</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="C51">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J51">
-        <v>5.59945467413003E-4</v>
+        <v>-5.4905274435128798E-2</v>
       </c>
     </row>
     <row r="52" spans="2:10">
-      <c r="C52">
-        <v>6</v>
+      <c r="C52" s="1">
+        <v>8</v>
       </c>
       <c r="J52">
-        <v>-5.4905274435128798E-2</v>
+        <v>-0.84922301876179696</v>
       </c>
     </row>
     <row r="53" spans="2:10">
-      <c r="C53" s="1">
-        <v>8</v>
-      </c>
-      <c r="J53">
-        <v>-0.84922301876179696</v>
+      <c r="C53" t="s">
+        <v>32</v>
+      </c>
+      <c r="J53" s="8">
+        <v>-6.0915468092361104E+28</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="C54" t="s">
         <v>33</v>
       </c>
-      <c r="J54" s="8">
-        <v>-6.0915468092361104E+28</v>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="J54">
+        <v>-2.1816499340586701E-2</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>34</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55">
         <v>-2.1816499340586701E-2</v>
       </c>
     </row>
     <row r="56" spans="2:10">
-      <c r="B56" t="s">
-        <v>36</v>
-      </c>
       <c r="C56" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56">
+        <v>4.52325560300159E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10">
+      <c r="C57">
+        <v>10</v>
+      </c>
+      <c r="J57">
+        <v>0.19970525007751</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10">
+      <c r="C58">
+        <v>15</v>
+      </c>
+      <c r="J58">
+        <v>0.38292406791901801</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10">
+      <c r="C59">
+        <v>20</v>
+      </c>
+      <c r="J59">
+        <v>0.58451376814215505</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10">
+      <c r="C60">
+        <v>25</v>
+      </c>
+      <c r="J60">
+        <v>0.61317954327995405</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10">
+      <c r="C61">
+        <v>27</v>
+      </c>
+      <c r="J61">
+        <v>0.61466380977407797</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10">
+      <c r="C62">
+        <v>30</v>
+      </c>
+      <c r="J62">
+        <v>0.59930079516454204</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10">
+      <c r="C63">
         <v>35</v>
       </c>
-      <c r="D56" t="s">
-        <v>17</v>
-      </c>
-      <c r="J56">
-        <v>-2.1816499340586701E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10">
-      <c r="C57" t="s">
-        <v>38</v>
-      </c>
-      <c r="J57">
-        <v>0.57984439099906904</v>
+      <c r="J63">
+        <v>0.60181956901396405</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="10">
+  <conditionalFormatting sqref="J18">
+    <cfRule type="dataBar" priority="60">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E59F1605-3AD5-488A-8367-B59A063D6B33}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="dataBar" priority="58">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5DEA47C6-B8FD-4134-BF77-16E535886DA5}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23">
+    <cfRule type="dataBar" priority="57">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J34">
+    <cfRule type="dataBar" priority="53">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{55F584A5-F8E7-4655-8845-1F7D02A919B6}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22 J1:J2 J4:J17 J24:J33 J35:J50 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="79">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1901,22 +2229,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="dataBar" priority="9">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E59F1605-3AD5-488A-8367-B59A063D6B33}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J23 J25:J34 J36:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="8">
+  <conditionalFormatting sqref="J1:J2 J4:J22 J24:J33 J35:J50 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1929,36 +2243,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="dataBar" priority="7">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5DEA47C6-B8FD-4134-BF77-16E535886DA5}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
-    <cfRule type="dataBar" priority="6">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J2 J4:J12 J14:J34 J36:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="J1:J2 J4:J33 J35:J50 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="98">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1971,8 +2257,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J12 J14:J34 J36:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="27">
+  <conditionalFormatting sqref="J1:J33 J35:J50 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1985,8 +2271,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J34 J36:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="3">
+  <conditionalFormatting sqref="J35:J50 J1:J33 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="113">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1999,22 +2285,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J35">
-    <cfRule type="dataBar" priority="2">
-      <dataBar>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FF63C384"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{55F584A5-F8E7-4655-8845-1F7D02A919B6}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J51 J53 J55:J1048576">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="J1:J50 J52 J54:J60 J62:J1048576">
+    <cfRule type="dataBar" priority="120">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2027,11 +2299,70 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S35">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E59F1605-3AD5-488A-8367-B59A063D6B33}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J18</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5DEA47C6-B8FD-4134-BF77-16E535886DA5}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{55F584A5-F8E7-4655-8845-1F7D02A919B6}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J34</xm:sqref>
+        </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2E3248A5-9126-4858-B80E-B21E96B323BD}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
@@ -2041,18 +2372,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J20:J23 J1:J2 J4:J12 J14:J18 J25:J34 J36:J51 J53 J55:J1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E59F1605-3AD5-488A-8367-B59A063D6B33}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J19</xm:sqref>
+          <xm:sqref>J19:J22 J1:J2 J4:J17 J24:J33 J35:J50 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{2EDC6491-F5B0-4DBA-8151-D4217EBFBBC4}">
@@ -2063,29 +2383,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J4:J12 J14:J23 J25:J34 J36:J51 J53 J55:J1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5DEA47C6-B8FD-4134-BF77-16E535886DA5}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BCDAD74E-D7D6-4A90-BD37-452FA2BEA121}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J24</xm:sqref>
+          <xm:sqref>J1:J2 J4:J22 J24:J33 J35:J50 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{B0E31D80-0377-4BB8-B7EC-18C020757932}">
@@ -2096,7 +2394,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J2 J4:J12 J14:J34 J36:J51 J53 J55:J1048576</xm:sqref>
+          <xm:sqref>J1:J2 J4:J33 J35:J50 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{126E423A-FEDB-473C-AA94-A74501802407}">
@@ -2107,7 +2405,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J12 J14:J34 J36:J51 J53 J55:J1048576</xm:sqref>
+          <xm:sqref>J1:J33 J35:J50 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{4F7E9FCA-15D9-4393-A707-31E7C08EBDB2}">
@@ -2118,18 +2416,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J34 J36:J51 J53 J55:J1048576</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{55F584A5-F8E7-4655-8845-1F7D02A919B6}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0">
-              <x14:cfvo type="autoMin"/>
-              <x14:cfvo type="autoMax"/>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>J35</xm:sqref>
+          <xm:sqref>J35:J50 J1:J33 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{7BA0D201-8352-42A1-AA34-10F85E617F45}">
@@ -2140,7 +2427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>J1:J51 J53 J55:J1048576</xm:sqref>
+          <xm:sqref>J1:J50 J52 J54:J60 J62:J1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
